--- a/Product_Backlog/product backlog.xlsx
+++ b/Product_Backlog/product backlog.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{915AFCBE-AF4D-4D61-A427-772C8BBB8194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="300" windowWidth="15375" windowHeight="7875" xr2:uid="{67798CE7-5B20-4196-9FFE-C18CDE4CB71B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -218,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +237,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,12 +259,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +268,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,17 +590,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79B7B28-A6E3-47B6-8D9C-9D113E809992}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.85546875" customWidth="1"/>
-    <col min="2" max="2" width="105.28515625" customWidth="1"/>
+    <col min="1" max="1" width="69.85546875" customWidth="1"/>
+    <col min="2" max="2" width="86.5703125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="66.85546875" customWidth="1"/>
@@ -598,379 +608,438 @@
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="8">
         <v>43853</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="8">
         <v>43853</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>5</v>
       </c>
-      <c r="G5" s="1">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8">
         <v>43853</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="1">
+      <c r="F6" s="5"/>
+      <c r="G6" s="8">
         <v>43853</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="1">
+      <c r="F7" s="5"/>
+      <c r="G7" s="8">
         <v>43853</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G8" s="8">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="8">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8">
+        <v>43852</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G11" s="8">
+        <v>43852</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11">
+      <c r="G12" s="8">
+        <v>43852</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="8">
+        <v>43852</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8">
+        <v>43852</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="8">
+        <v>43852</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
+      <c r="E16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="8">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="8">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17">
+      <c r="D18" s="5">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="8">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D19" s="5">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="8">
         <v>43852</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Product_Backlog/product backlog.xlsx
+++ b/Product_Backlog/product backlog.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johng\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{915AFCBE-AF4D-4D61-A427-772C8BBB8194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="11985" yWindow="300" windowWidth="15375" windowHeight="7875" xr2:uid="{67798CE7-5B20-4196-9FFE-C18CDE4CB71B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -217,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,12 +238,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,8 +254,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -268,15 +267,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,17 +580,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79B7B28-A6E3-47B6-8D9C-9D113E809992}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.85546875" customWidth="1"/>
-    <col min="2" max="2" width="86.5703125" customWidth="1"/>
+    <col min="1" max="1" width="66.85546875" customWidth="1"/>
+    <col min="2" max="2" width="105.28515625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="66.85546875" customWidth="1"/>
@@ -608,438 +598,379 @@
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="1">
         <v>43853</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="1">
         <v>43853</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="8">
+      <c r="G5" s="1">
         <v>43853</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
+      <c r="G6" s="1">
         <v>43853</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8">
+      <c r="G7" s="1">
         <v>43853</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="8">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="1">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="8">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="8">
-        <v>43852</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="5">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="8">
-        <v>43852</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="8">
-        <v>43852</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="8">
-        <v>43852</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="5">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="8">
-        <v>43852</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="8">
-        <v>43852</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="5">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5">
-        <v>4</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="8">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D19">
         <v>5</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="8">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>5</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="8">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
-        <v>5</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
+      <c r="F19" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="1">
         <v>43852</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Product_Backlog/product backlog.xlsx
+++ b/Product_Backlog/product backlog.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johng\Documents\GitHub\team5agile\Product_Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{915AFCBE-AF4D-4D61-A427-772C8BBB8194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3946485C-6899-41F3-A413-32AD876C9031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="300" windowWidth="15375" windowHeight="7875" xr2:uid="{67798CE7-5B20-4196-9FFE-C18CDE4CB71B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -228,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +230,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,12 +264,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +273,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,17 +597,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79B7B28-A6E3-47B6-8D9C-9D113E809992}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.85546875" customWidth="1"/>
-    <col min="2" max="2" width="105.28515625" customWidth="1"/>
+    <col min="1" max="1" width="69.85546875" customWidth="1"/>
+    <col min="2" max="2" width="86.5703125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="66.85546875" customWidth="1"/>
@@ -598,379 +615,438 @@
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="6">
         <v>43853</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <v>43853</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>5</v>
       </c>
-      <c r="G5" s="1">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6">
         <v>43853</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="1">
+      <c r="F6" s="5"/>
+      <c r="G6" s="6">
         <v>43853</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="1">
+      <c r="F7" s="5"/>
+      <c r="G7" s="6">
         <v>43853</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G8" s="6">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="6">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6">
+        <v>43852</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G11" s="6">
+        <v>43852</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11">
+      <c r="G12" s="6">
+        <v>43852</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="6">
+        <v>43852</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="6">
+        <v>43852</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="6">
+        <v>43852</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
+      <c r="E16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="6">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="6">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17">
+      <c r="D18" s="5">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="6">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D19" s="5">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="1">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="6">
         <v>43852</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Product_Backlog/product backlog.xlsx
+++ b/Product_Backlog/product backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johng\Documents\GitHub\team5agile\Product_Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3946485C-6899-41F3-A413-32AD876C9031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C757020A-2B30-4C2B-B5D8-5710A3F3566A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8145" yWindow="2025" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t xml:space="preserve">Set constraint based on location </t>
   </si>
   <si>
-    <t xml:space="preserve">As an application user, I want to be able to set a constraint based on my set price range </t>
-  </si>
-  <si>
     <t xml:space="preserve">Set live location </t>
   </si>
   <si>
@@ -75,18 +72,12 @@
     <t xml:space="preserve">Order results based on price </t>
   </si>
   <si>
-    <t xml:space="preserve">As an application user, I want to be able to order the results based on price </t>
-  </si>
-  <si>
     <t xml:space="preserve">Test that results search are ordered from lowest to highest </t>
   </si>
   <si>
     <t xml:space="preserve">Order results based on distance </t>
   </si>
   <si>
-    <t xml:space="preserve">As an application user, I want to be able to order the results based on distance from my location </t>
-  </si>
-  <si>
     <t xml:space="preserve">Test that search results are ordered from closest to either live location or manual location, to furthest away </t>
   </si>
   <si>
@@ -102,18 +93,12 @@
     <t xml:space="preserve">Set location manually </t>
   </si>
   <si>
-    <t xml:space="preserve">As an application user, I want to set my location manually </t>
-  </si>
-  <si>
     <t xml:space="preserve">Test that location can be entered by user and search matches location </t>
   </si>
   <si>
     <t xml:space="preserve">Order results based on custom ranking of price, distance and user feedback </t>
   </si>
   <si>
-    <t xml:space="preserve">As an application user, I want to be able to order the results based on my price, distance and user feedback constraints </t>
-  </si>
-  <si>
     <t xml:space="preserve">Load new/edited data to update existing data set </t>
   </si>
   <si>
@@ -168,9 +153,6 @@
     <t xml:space="preserve">Website skeleton, search functionality </t>
   </si>
   <si>
-    <t xml:space="preserve">As an application user, I want to be able to set a constraint based on my set location </t>
-  </si>
-  <si>
     <t xml:space="preserve">Test that results that fit the constraints based on set location are displayed </t>
   </si>
   <si>
@@ -186,9 +168,6 @@
     <t xml:space="preserve">Test that search parameters can be entered, and the correct results are displayed </t>
   </si>
   <si>
-    <t>As a user, I want to be able to load new/edited data to update the data set</t>
-  </si>
-  <si>
     <t>Load new/ edited data to add to existing data set</t>
   </si>
   <si>
@@ -198,13 +177,34 @@
     <t>Load new/ edited data to delete from existing data set</t>
   </si>
   <si>
-    <t>As a user, I want to be able to load new/edited data to delete from existing data set</t>
-  </si>
-  <si>
     <t xml:space="preserve">As a developer, I want to be able to create a parser to parse the csv file into the database </t>
   </si>
   <si>
     <t>As a developer, I want to calculate the distance from the user to the provider</t>
+  </si>
+  <si>
+    <t>As an application user, I want to be able to set a constraint based on my set location so I can find hospitals close to me</t>
+  </si>
+  <si>
+    <t>As an application user, I want to be able to set a constraint based on my set price range so I can find treatment in my price range</t>
+  </si>
+  <si>
+    <t>As an application user, I want to be able to order the results based on price so I can so the cheapest or most expensive in order</t>
+  </si>
+  <si>
+    <t>As an application user, I want to be able to order the results based on distance from my location so I can find the closest to myself</t>
+  </si>
+  <si>
+    <t>As an application user, I want to set my location manually so I can see result based on somewhere I may be in the future</t>
+  </si>
+  <si>
+    <t>As an application user, I want to be able to order the results based on my price, distance and user feedback constraints so I can see what others thought of the service</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to load new/edited data to update the data set so I can keep the data up-to-date</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to load new/edited data to delete from existing data set so I can keep the data up-to-date</t>
   </si>
 </sst>
 </file>
@@ -600,14 +600,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.85546875" customWidth="1"/>
-    <col min="2" max="2" width="86.5703125" customWidth="1"/>
+    <col min="2" max="2" width="122.5703125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="66.85546875" customWidth="1"/>
@@ -626,30 +626,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5">
         <v>10</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5">
         <v>10</v>
@@ -688,10 +688,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5">
         <v>10</v>
@@ -719,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="6">
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6">
@@ -761,10 +761,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6">
         <v>43852</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5">
         <v>8</v>
@@ -785,7 +785,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G9" s="6">
         <v>43852</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="C10" s="5">
         <v>8</v>
@@ -806,7 +806,7 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="6">
         <v>43852</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5">
         <v>7</v>
@@ -834,7 +834,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G11" s="6">
         <v>43852</v>
@@ -849,10 +849,10 @@
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C12" s="5">
         <v>7</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G12" s="6">
         <v>43852</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C13" s="5">
         <v>7</v>
@@ -890,7 +890,7 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" s="6">
         <v>43852</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C14" s="5">
         <v>7</v>
@@ -918,7 +918,7 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G14" s="6">
         <v>43852</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C15" s="5">
         <v>6</v>
@@ -946,7 +946,7 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G15" s="6">
         <v>43852</v>
@@ -961,10 +961,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C16" s="5">
         <v>3</v>
@@ -973,10 +973,10 @@
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G16" s="6">
         <v>43852</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -997,7 +997,7 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G17" s="6">
         <v>43852</v>
@@ -1005,10 +1005,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G18" s="6">
         <v>43852</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G19" s="6">
         <v>43852</v>

--- a/Product_Backlog/product backlog.xlsx
+++ b/Product_Backlog/product backlog.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johng\Documents\GitHub\team5agile\Product_Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C757020A-2B30-4C2B-B5D8-5710A3F3566A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6EE0CE-0D37-4F27-AB5E-406568165040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8145" yWindow="2025" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="14550" windowHeight="7605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -171,9 +179,6 @@
     <t>Load new/ edited data to add to existing data set</t>
   </si>
   <si>
-    <t>As a user, I want to be able to load new/edited data to add to the existing data set</t>
-  </si>
-  <si>
     <t>Load new/ edited data to delete from existing data set</t>
   </si>
   <si>
@@ -201,10 +206,13 @@
     <t>As an application user, I want to be able to order the results based on my price, distance and user feedback constraints so I can see what others thought of the service</t>
   </si>
   <si>
-    <t>As a user, I want to be able to load new/edited data to update the data set so I can keep the data up-to-date</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to load new/edited data to delete from existing data set so I can keep the data up-to-date</t>
+    <t>As an admin, I want to be able to load new/edited data to update the data set so I can keep the data up-to-date</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to load new/edited data to add to the existing data set so I can keep the data up-to-date</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to load new/edited data to delete from existing data set so I can keep the data up-to-date</t>
   </si>
 </sst>
 </file>
@@ -600,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +678,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="5">
         <v>10</v>
@@ -691,7 +699,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="5">
         <v>10</v>
@@ -824,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="5">
         <v>7</v>
@@ -852,7 +860,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5">
         <v>7</v>
@@ -880,7 +888,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="5">
         <v>7</v>
@@ -908,7 +916,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="5">
         <v>7</v>
@@ -936,7 +944,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="5">
         <v>6</v>
@@ -964,7 +972,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="5">
         <v>3</v>
@@ -987,7 +995,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -1008,7 +1016,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -1026,7 +1034,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>59</v>

--- a/Product_Backlog/product backlog.xlsx
+++ b/Product_Backlog/product backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johng\Documents\GitHub\team5agile\Product_Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6EE0CE-0D37-4F27-AB5E-406568165040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B46B14-D971-407F-AB79-30BB6F6D329C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="14550" windowHeight="7605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,10 +991,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="5">
@@ -1012,10 +1012,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="5">
@@ -1033,10 +1033,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="5">
